--- a/2LabsToGo-Eco-Hardware/Material-Lists/Amazon-basket.xlsx
+++ b/2LabsToGo-Eco-Hardware/Material-Lists/Amazon-basket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Coworkers\Cande\Paper_OCLab4\Supporting_information\BOM-list\Baskets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschwack\GitHub\2LabsToGo-Eco\2LabsToGo-Eco-Hardware\Material-Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,16 +520,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
